--- a/src/test/resources/Data/DatosExcel.xlsx
+++ b/src/test/resources/Data/DatosExcel.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebenavideja\Desktop\serializarSim\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebenavideja\Desktop\Proyectos\Automatizaciones\Serenity\SerializarSim\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E4DB3-1627-40ED-B2E3-A273601C2A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C1B2BD-7235-47C3-A0D1-8EAF12C35DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D6E497CA-48BA-47A3-B119-AA4EA4B9FF8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D6E497CA-48BA-47A3-B119-AA4EA4B9FF8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Url" sheetId="2" r:id="rId1"/>
     <sheet name="DatosLogin" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Url</t>
   </si>
@@ -53,12 +55,18 @@
   <si>
     <t>Abc1234%</t>
   </si>
+  <si>
+    <t>numeroOrden</t>
+  </si>
+  <si>
+    <t>numeroSerieRecurso</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +96,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -121,6 +141,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -442,18 +466,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.7109375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -472,13 +496,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7F1C6B-B8DA-46D9-A6C5-BCC300A6C790}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -486,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -503,6 +527,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78647F4-A7C7-4485-AC5D-42EF0406AE9E}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6">
+        <v>20000006033183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E2DD1C-9831-4F0E-AC53-6F970A66C020}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>8.9571234787787397E+18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e65bd4d2-aa7c-445f-9ef8-222ebb1d2b43}" enabled="1" method="Privileged" siteId="{9744600e-3e04-492e-baa1-25ec245c6f10}" contentBits="2" removed="0"/>
